--- a/Assets/StreamingAssets/QuestsFile/Excels/1000.xlsx
+++ b/Assets/StreamingAssets/QuestsFile/Excels/1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity Projects Public\ThreeBody\Assets\Missions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity Projects Public\TestThreeBody\Assets\StreamingAssets\QuestsFile\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1635574-EE7C-4A80-A383-EC3754F55A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA967B3-3048-4690-A788-E06B7694251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="480" windowWidth="21336" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>EnterArea</t>
   </si>
@@ -193,6 +193,38 @@
   <si>
     <t>前往基地</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -272,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +316,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,164 +627,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="6" width="9.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>101</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>1&amp;C3&amp;D3&amp;E3&amp;F3</f>
+        <v>110101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>201</v>
       </c>
-      <c r="F3" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>102</v>
+      <c r="J3" s="1">
+        <v>110102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f t="shared" ref="A4:A7" si="0">1&amp;C4&amp;D4&amp;E4&amp;F4</f>
+        <v>110102</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>301</v>
       </c>
-      <c r="F4" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>103</v>
+      <c r="J4" s="1">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>110103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="1">
         <v>1401</v>
       </c>
-      <c r="F5" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>104</v>
+      <c r="J5" s="1">
+        <v>110104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>110104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="1">
         <v>1301</v>
       </c>
-      <c r="F6" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>105</v>
+      <c r="J6" s="1">
+        <v>110105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>110105</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="1">
         <v>202</v>
       </c>
-      <c r="F7" s="1">
-        <v>106</v>
+      <c r="J7" s="1">
+        <v>110106</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +876,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D7</xm:sqref>
+          <xm:sqref>H3:H7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
